--- a/SWACS.xlsx
+++ b/SWACS.xlsx
@@ -597,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
